--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1570655.525837552</v>
+        <v>-1573516.339629843</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>19.98946990210334</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>143.5013688276107</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>136.951991941494</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>102.8511758218327</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>47.06906423822952</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>24.08384568845422</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -947,10 +947,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>59.80127191868286</v>
+        <v>111.2254363169657</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>47.32891336229404</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>145.1941197292621</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>122.6278044807784</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>163.5176918809201</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>93.69312609777754</v>
       </c>
       <c r="G8" t="n">
-        <v>318.0995022958166</v>
+        <v>11.74167907658357</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411814962</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177533</v>
+        <v>127.8724504177535</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0607682327524</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>44.00401502694966</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696362</v>
+        <v>93.83392671696366</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906592</v>
+        <v>23.79630926906607</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>35.22722591942184</v>
+        <v>136.2924232858445</v>
       </c>
       <c r="T9" t="n">
-        <v>192.4848946346714</v>
+        <v>192.4848946346715</v>
       </c>
       <c r="U9" t="n">
         <v>225.8160311441933</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>68.13678788633349</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>31.30188906689777</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>107.4132560413785</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169634</v>
+        <v>105.4699075169636</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627544</v>
+        <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
         <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>150.3341561773611</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238155</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,13 +1664,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182046</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>6.228861054231776</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>82.47290449301033</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053495</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>89.67992556049168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>154.0370966050008</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808202</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3718,16 +3718,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710053</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574.0438072739748</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C2" t="n">
-        <v>307.6661507067968</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D2" t="n">
-        <v>307.6661507067968</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E2" t="n">
-        <v>307.6661507067968</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F2" t="n">
-        <v>307.6661507067968</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G2" t="n">
-        <v>41.28849413961882</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4346,34 +4346,34 @@
         <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>686.1106626298167</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411528</v>
+        <v>432.4256445709455</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411528</v>
+        <v>432.4256445709455</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411528</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="X2" t="n">
-        <v>840.4214638411528</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y2" t="n">
-        <v>574.0438072739748</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>658.5043370227702</v>
+        <v>332.9468261321803</v>
       </c>
       <c r="C3" t="n">
-        <v>520.1689916273217</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="D3" t="n">
-        <v>371.2345819660704</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="E3" t="n">
-        <v>211.9971269606149</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302307</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267545</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293595</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560893</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>691.0742594480918</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428383</v>
+        <v>691.0742594480918</v>
       </c>
       <c r="V3" t="n">
-        <v>826.7196740428383</v>
+        <v>587.184182860382</v>
       </c>
       <c r="W3" t="n">
-        <v>826.7196740428383</v>
+        <v>332.9468261321803</v>
       </c>
       <c r="X3" t="n">
-        <v>826.7196740428383</v>
+        <v>332.9468261321803</v>
       </c>
       <c r="Y3" t="n">
-        <v>826.7196740428383</v>
+        <v>332.9468261321803</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>343.5878441116391</v>
+        <v>68.64161973166546</v>
       </c>
       <c r="C4" t="n">
-        <v>343.5878441116391</v>
+        <v>68.64161973166546</v>
       </c>
       <c r="D4" t="n">
-        <v>343.5878441116391</v>
+        <v>68.64161973166546</v>
       </c>
       <c r="E4" t="n">
-        <v>343.5878441116391</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>343.5878441116391</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375336</v>
@@ -4507,31 +4507,31 @@
         <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165361</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T4" t="n">
-        <v>622.5994491745504</v>
+        <v>829.3864837640386</v>
       </c>
       <c r="U4" t="n">
-        <v>622.5994491745504</v>
+        <v>563.0088271968607</v>
       </c>
       <c r="V4" t="n">
-        <v>367.9149609686635</v>
+        <v>563.0088271968607</v>
       </c>
       <c r="W4" t="n">
-        <v>367.9149609686635</v>
+        <v>296.6311706296828</v>
       </c>
       <c r="X4" t="n">
-        <v>343.5878441116391</v>
+        <v>68.64161973166546</v>
       </c>
       <c r="Y4" t="n">
-        <v>343.5878441116391</v>
+        <v>68.64161973166546</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571243</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899464</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4565,16 +4565,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4595,22 +4595,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>840.1393936243022</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="V5" t="n">
-        <v>840.1393936243022</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="W5" t="n">
-        <v>840.1393936243022</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="X5" t="n">
-        <v>573.7617370571243</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y5" t="n">
-        <v>573.7617370571243</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>453.9627644854196</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>453.9627644854196</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>305.0283548241683</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>305.0283548241683</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
         <v>21.09711040012049</v>
@@ -4644,13 +4644,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>46.96951069551282</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699341</v>
+        <v>121.653531464967</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302309</v>
+        <v>268.3979551252636</v>
       </c>
       <c r="M6" t="n">
         <v>529.4746963267547</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>840.076354622418</v>
       </c>
       <c r="U6" t="n">
-        <v>808.3837902496282</v>
+        <v>840.076354622418</v>
       </c>
       <c r="V6" t="n">
-        <v>808.3837902496282</v>
+        <v>604.9242463906753</v>
       </c>
       <c r="W6" t="n">
-        <v>808.3837902496282</v>
+        <v>604.9242463906753</v>
       </c>
       <c r="X6" t="n">
-        <v>661.7230632503736</v>
+        <v>397.0727461851425</v>
       </c>
       <c r="Y6" t="n">
-        <v>453.9627644854196</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>595.4094880787154</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>595.4094880787154</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>445.2928486663797</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>445.2928486663797</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
         <v>21.09711040012049</v>
@@ -4726,19 +4726,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512189</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>719.2759572512189</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U7" t="n">
-        <v>719.2759572512189</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="V7" t="n">
-        <v>595.4094880787154</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="W7" t="n">
-        <v>595.4094880787154</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="X7" t="n">
-        <v>595.4094880787154</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="Y7" t="n">
-        <v>595.4094880787154</v>
+        <v>202.7455752303602</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.530647066504</v>
+        <v>153.0162055982423</v>
       </c>
       <c r="C8" t="n">
-        <v>1238.530647066504</v>
+        <v>153.0162055982423</v>
       </c>
       <c r="D8" t="n">
-        <v>1238.530647066504</v>
+        <v>153.0162055982423</v>
       </c>
       <c r="E8" t="n">
-        <v>852.7423944682594</v>
+        <v>153.0162055982423</v>
       </c>
       <c r="F8" t="n">
-        <v>441.7564896786518</v>
+        <v>58.37668428735586</v>
       </c>
       <c r="G8" t="n">
-        <v>120.4438610970188</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="H8" t="n">
-        <v>120.4438610970188</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181714</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229173</v>
+        <v>166.4989367229162</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677516</v>
+        <v>397.0601716677494</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937612</v>
+        <v>719.9935330937574</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721582</v>
+        <v>1110.988557721577</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999427</v>
+        <v>1512.92409899942</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830566</v>
+        <v>1879.125171830556</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271734</v>
+        <v>2157.168314271723</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257594</v>
+        <v>2317.794388257583</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590857</v>
+        <v>2325.820119590845</v>
       </c>
       <c r="S8" t="n">
-        <v>2196.656028259793</v>
+        <v>2196.656028259781</v>
       </c>
       <c r="T8" t="n">
-        <v>2196.656028259793</v>
+        <v>1987.05267851294</v>
       </c>
       <c r="U8" t="n">
-        <v>1943.059292671154</v>
+        <v>1987.05267851294</v>
       </c>
       <c r="V8" t="n">
-        <v>1611.996405327583</v>
+        <v>1655.98979116937</v>
       </c>
       <c r="W8" t="n">
-        <v>1611.996405327583</v>
+        <v>1303.221135899256</v>
       </c>
       <c r="X8" t="n">
-        <v>1238.530647066504</v>
+        <v>929.7553776381758</v>
       </c>
       <c r="Y8" t="n">
-        <v>1238.530647066504</v>
+        <v>539.6160456623641</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>794.4942745006746</v>
+        <v>692.4082165547813</v>
       </c>
       <c r="C9" t="n">
-        <v>620.0412452195476</v>
+        <v>517.9551872736544</v>
       </c>
       <c r="D9" t="n">
-        <v>471.1068355582963</v>
+        <v>369.0207776124031</v>
       </c>
       <c r="E9" t="n">
-        <v>311.8693805528408</v>
+        <v>209.7833226069476</v>
       </c>
       <c r="F9" t="n">
-        <v>165.3348225797258</v>
+        <v>209.7833226069476</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3348225797258</v>
+        <v>165.3348225797257</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117665</v>
+        <v>70.55307842117656</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181714</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="J9" t="n">
-        <v>223.9894559067848</v>
+        <v>223.9894559067842</v>
       </c>
       <c r="K9" t="n">
-        <v>510.2734415371317</v>
+        <v>392.1194303282873</v>
       </c>
       <c r="L9" t="n">
-        <v>782.6674818295471</v>
+        <v>664.5134706207017</v>
       </c>
       <c r="M9" t="n">
-        <v>1119.895347026212</v>
+        <v>1001.741335817366</v>
       </c>
       <c r="N9" t="n">
-        <v>1480.45727527755</v>
+        <v>1362.303264068702</v>
       </c>
       <c r="O9" t="n">
-        <v>1788.081202938439</v>
+        <v>1669.92719172959</v>
       </c>
       <c r="P9" t="n">
-        <v>2015.643459247555</v>
+        <v>1997.684836227398</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590857</v>
+        <v>2307.861496570699</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590857</v>
+        <v>2325.820119590845</v>
       </c>
       <c r="S9" t="n">
-        <v>2290.237063106592</v>
+        <v>2188.151005160699</v>
       </c>
       <c r="T9" t="n">
-        <v>2095.807876606924</v>
+        <v>1993.721818661031</v>
       </c>
       <c r="U9" t="n">
-        <v>1867.710875451173</v>
+        <v>1765.62481750528</v>
       </c>
       <c r="V9" t="n">
-        <v>1632.558767219431</v>
+        <v>1530.472709273538</v>
       </c>
       <c r="W9" t="n">
-        <v>1378.321410491229</v>
+        <v>1276.235352545336</v>
       </c>
       <c r="X9" t="n">
-        <v>1170.469910285696</v>
+        <v>1068.383852339803</v>
       </c>
       <c r="Y9" t="n">
-        <v>962.7096115207426</v>
+        <v>860.6235535748494</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>228.2511115686961</v>
+        <v>223.8396790864755</v>
       </c>
       <c r="C10" t="n">
-        <v>228.2511115686961</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="D10" t="n">
-        <v>78.13447215636035</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="E10" t="n">
-        <v>78.13447215636035</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="F10" t="n">
-        <v>46.51640239181714</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="G10" t="n">
-        <v>46.51640239181714</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181714</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181714</v>
+        <v>46.5164023918169</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909604</v>
+        <v>65.89540801909556</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736028</v>
+        <v>227.5779039736019</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632633</v>
+        <v>490.0022680632619</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794074</v>
+        <v>777.0810884794055</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620622</v>
+        <v>1062.76843262062</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257119</v>
+        <v>1310.630639257116</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325122</v>
+        <v>1499.198894325118</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718236</v>
+        <v>1546.318699718232</v>
       </c>
       <c r="R10" t="n">
-        <v>1439.783439600091</v>
+        <v>1439.783439600087</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.783439600091</v>
+        <v>1439.783439600087</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.429428829632</v>
+        <v>1216.429428829628</v>
       </c>
       <c r="U10" t="n">
-        <v>927.3062973339137</v>
+        <v>927.3062973339098</v>
       </c>
       <c r="V10" t="n">
-        <v>927.3062973339137</v>
+        <v>672.621809128023</v>
       </c>
       <c r="W10" t="n">
-        <v>637.8891272969531</v>
+        <v>672.621809128023</v>
       </c>
       <c r="X10" t="n">
-        <v>409.8995763989358</v>
+        <v>444.6322582300056</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.8995763989358</v>
+        <v>223.8396790864755</v>
       </c>
     </row>
     <row r="11">
@@ -5024,16 +5024,16 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,49 +5042,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232835</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408904</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429801</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2045.209862480131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,58 +5258,58 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5321,7 +5321,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998425</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998425</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.87223575409</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>853.9360528261833</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>703.8194134138554</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>555.9063198314624</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>409.0163723335522</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>241.8202730484321</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>100.1084418906302</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831764</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625877</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625877</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.31327972786</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.52070058433</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5498,58 +5498,58 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5558,7 +5558,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167372</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.079034721979</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908935</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057736</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533434</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327547</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925698</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490398</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5735,55 +5735,55 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123001</v>
@@ -5795,7 +5795,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444888</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327663</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>680.4481746984125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860768</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057736</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057736</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806536</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630059</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,37 +5975,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852254</v>
@@ -6017,13 +6017,13 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6066,13 +6066,13 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
         <v>680.0291294438176</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908935</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908935</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057736</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797186</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189236</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533434</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327547</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925698</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490398</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,10 +6260,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6303,22 +6303,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>414.4022433768874</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>266.4891497944943</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>266.4891497944943</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>266.4891497944943</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6494,10 +6494,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656809</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345467</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438401</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954156</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380735</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231133</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,73 +7069,73 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7345,22 +7345,22 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7400,61 +7400,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384018</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345474</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775106</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>28.18495819153173</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>119.3474860695385</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>101.2074628168602</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>27.3816465586474</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>238.7086800719744</v>
       </c>
       <c r="H2" t="n">
-        <v>294.2041627271647</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>33.77959677692533</v>
+        <v>205.7395998898023</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>135.8503182118831</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>75.03697526433365</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.2291039219395</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>84.77391660561736</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>37.1260136526046</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392193862</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>50.61478728573221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118476.4986260251</v>
+        <v>118476.4986260252</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262497</v>
@@ -26320,10 +26320,10 @@
         <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="F2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="G2" t="n">
         <v>141250.6549457511</v>
@@ -26332,19 +26332,19 @@
         <v>141250.6549457511</v>
       </c>
       <c r="I2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="J2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>141250.654945751</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262496</v>
@@ -26353,7 +26353,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228513016</v>
+        <v>331437.522851299</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424076</v>
+        <v>563905.7843424105</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.057122371344655e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911414</v>
+        <v>68999.15441911411</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201292</v>
+        <v>99845.14336201223</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569548</v>
+        <v>147342.6769569555</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168123.2540377242</v>
+        <v>168123.2540377246</v>
       </c>
       <c r="C4" t="n">
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>156056.4565677617</v>
+        <v>156056.4565677625</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678142</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678142</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678133</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678134</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678129</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26451,10 +26451,10 @@
         <v>18547.94754987469</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987471</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987469</v>
+        <v>18547.94754987478</v>
       </c>
       <c r="P4" t="n">
         <v>18547.94754987468</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543609</v>
+        <v>88290.79546543589</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-792782.5392071585</v>
+        <v>-793142.6222228759</v>
       </c>
       <c r="C6" t="n">
         <v>-169698.1594528786</v>
       </c>
       <c r="D6" t="n">
-        <v>-432102.4651582498</v>
+        <v>-432102.4651582479</v>
       </c>
       <c r="E6" t="n">
-        <v>-534334.747507345</v>
+        <v>-534369.4854327835</v>
       </c>
       <c r="F6" t="n">
-        <v>29571.03683506256</v>
+        <v>29536.29890962703</v>
       </c>
       <c r="G6" t="n">
-        <v>29571.03683506265</v>
+        <v>29536.29890962703</v>
       </c>
       <c r="H6" t="n">
-        <v>29571.03683506271</v>
+        <v>29536.29890962721</v>
       </c>
       <c r="I6" t="n">
-        <v>29571.03683506267</v>
+        <v>29536.29890962716</v>
       </c>
       <c r="J6" t="n">
-        <v>-39428.11758405136</v>
+        <v>-39462.85550948705</v>
       </c>
       <c r="K6" t="n">
-        <v>29571.0368350627</v>
+        <v>29536.29890962709</v>
       </c>
       <c r="L6" t="n">
-        <v>-77874.89703955341</v>
+        <v>-77874.89703955264</v>
       </c>
       <c r="M6" t="n">
-        <v>-125372.4306344952</v>
+        <v>-125372.430634496</v>
       </c>
       <c r="N6" t="n">
-        <v>21970.24632245953</v>
+        <v>21970.24632245956</v>
       </c>
       <c r="O6" t="n">
-        <v>21970.24632245954</v>
+        <v>21970.2463224596</v>
       </c>
       <c r="P6" t="n">
-        <v>21970.24632245954</v>
+        <v>21970.24632245957</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>3.821402964180819e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>3.821402964180819e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896828</v>
+        <v>885.8132865896807</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977142</v>
+        <v>581.4550298977113</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.821402964180819e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202044</v>
+        <v>271.7582728202025</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519905</v>
+        <v>482.162213751993</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.741149896208</v>
+        <v>317.7411498962051</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019337</v>
+        <v>591.2532582019371</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.741149896208</v>
+        <v>317.7411498962051</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019337</v>
+        <v>591.2532582019371</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.821402964180819e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.741149896208</v>
+        <v>317.7411498962051</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019337</v>
+        <v>591.2532582019371</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>174.1254945737356</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>315.4613719404877</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>35.75650704682175</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>129.9494113275925</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>99.36489840833966</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117141</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>201.6258097005829</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>191.3468959595996</v>
+        <v>139.9227315613168</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,22 +27743,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>147.5120742225828</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>60.57886547421541</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>129.5098388430496</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>55.06696147117472</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>313.1829196439339</v>
       </c>
       <c r="G8" t="n">
-        <v>93.64217678076693</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819517</v>
+        <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>73.18818411814993</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493722</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27941,10 +27941,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4381829241309</v>
+        <v>91.4341678971813</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>101.0651973664226</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>99.11003321229434</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>114.1191589560335</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>148.0251168634279</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413784</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28305,13 +28305,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.251649450750847e-11</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28384,13 +28384,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28482,19 +28482,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>7.737343464343995e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28545,13 +28545,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,22 +28612,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>9.734435479913373e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.366678199181998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551486</v>
+        <v>3.561058438551477</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381541</v>
+        <v>36.46968973381533</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522563</v>
+        <v>137.287705452256</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490095</v>
+        <v>302.2403836490088</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528939</v>
+        <v>452.9799873528929</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417141</v>
+        <v>561.9617295417128</v>
       </c>
       <c r="M8" t="n">
-        <v>625.290702548304</v>
+        <v>625.2907025483026</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368385</v>
+        <v>635.4085598368371</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884922</v>
+        <v>599.9982849884907</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867523</v>
+        <v>512.0846547867511</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.554249456127</v>
+        <v>384.5542494561262</v>
       </c>
       <c r="R8" t="n">
-        <v>223.69233714066</v>
+        <v>223.6923371406594</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849207</v>
+        <v>81.14761916849187</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475914</v>
+        <v>15.5885333147591</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841188</v>
+        <v>0.2848846750841181</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079695</v>
+        <v>1.905334239079691</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953285</v>
+        <v>18.40151751953281</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234916</v>
+        <v>65.60032358234901</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474374</v>
+        <v>180.012301947437</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657769</v>
+        <v>307.6696959657762</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247382</v>
+        <v>413.6998750247373</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913771</v>
+        <v>482.7682411913759</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139774</v>
+        <v>495.5456800139762</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059483</v>
+        <v>453.3274845059473</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730341</v>
+        <v>363.8352723730333</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726993</v>
+        <v>243.2142442726988</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053165</v>
+        <v>118.2978574053163</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799344</v>
+        <v>35.39074781799335</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150172</v>
+        <v>7.679834060150154</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815589</v>
+        <v>0.1253509367815586</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.5973682217191</v>
+        <v>1.597368221719096</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401164</v>
+        <v>14.20205564401161</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587986</v>
+        <v>48.03721888587975</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755404</v>
+        <v>112.9339332755401</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051827</v>
+        <v>185.5851443051822</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817651</v>
+        <v>237.4850899817646</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191131</v>
+        <v>250.3947295191125</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108875</v>
+        <v>244.440902510887</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753507</v>
+        <v>225.7807373753502</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522809</v>
+        <v>193.1944256522804</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750421</v>
+        <v>133.7578062750418</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020605</v>
+        <v>71.8234838602059</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577739</v>
+        <v>27.83777164577733</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527061</v>
+        <v>6.825118765527046</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013282</v>
+        <v>0.08712917573013262</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496644</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753712</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>338.6542681503493</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.883274947307</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862118</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>188.4731159523465</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,16 +32786,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -33023,25 +33023,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>752.2150000824579</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,28 +33263,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>752.2150000824579</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159409</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>610.0546826043651</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,7 +34448,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127216</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,7 +34863,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496425</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>26.13373767211347</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089027</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223232</v>
+        <v>121.1944791223225</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079134</v>
+        <v>232.8901363079123</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717269</v>
+        <v>326.1953145717255</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210313</v>
+        <v>394.9444693210299</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402476</v>
+        <v>405.9954962402462</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668054</v>
+        <v>369.9000735668039</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314827</v>
+        <v>280.8516590314816</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816775</v>
+        <v>162.2485595816767</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527835</v>
+        <v>8.106799326527323</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>179.2657106211795</v>
+        <v>179.2657106211791</v>
       </c>
       <c r="K9" t="n">
-        <v>289.1757430609564</v>
+        <v>169.8282569914172</v>
       </c>
       <c r="L9" t="n">
-        <v>275.145495244864</v>
+        <v>275.1454952448631</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693587</v>
+        <v>340.6342072693576</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306441</v>
+        <v>364.2039679306429</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615039</v>
+        <v>310.7312400615028</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587038</v>
+        <v>331.0683277755633</v>
       </c>
       <c r="Q9" t="n">
-        <v>313.309757922527</v>
+        <v>313.3097579225264</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.14002325267315</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886758</v>
+        <v>19.57475315886732</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792998</v>
+        <v>163.3156524792994</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420813</v>
+        <v>265.0751152420808</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809537</v>
+        <v>289.9786064809531</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901161</v>
+        <v>288.5730748901155</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893903</v>
+        <v>250.3658652893898</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171744</v>
+        <v>190.4729849171739</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334771</v>
+        <v>47.5957630233474</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663311</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533528</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>196.0580237059048</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674328</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>45.87687150790201</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36434,16 +36434,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>620.8732879991246</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36911,28 +36911,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37242,7 +37242,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>620.8732879991246</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193501</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>471.5003028244909</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
